--- a/Gangnam_edit2/Gangnamgu_edit2.xlsx
+++ b/Gangnam_edit2/Gangnamgu_edit2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kimyihwan\OneDrive - kaist.ac.kr\Prokim\web scraping\Gangnam_edit2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataAnalysis\Paper_pycharm\Gangnam_edit2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_B826BE9CA2DFB6DFDA160B5183DFDFBD512E9AD5" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D051BABC-2E4F-456F-B532-34621191743B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3A2883-DCE2-4BE1-BEFC-5663B4031D43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6960" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edit2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3198" uniqueCount="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3200" uniqueCount="1226">
   <si>
     <t>읍면동</t>
   </si>
@@ -3715,6 +3715,14 @@
   </si>
   <si>
     <t>논현한화꿈에그린2차</t>
+  </si>
+  <si>
+    <t>논현동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청담동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4125,8 +4133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4825,6 +4833,9 @@
       <c r="A13" s="1">
         <v>71</v>
       </c>
+      <c r="B13" t="s">
+        <v>1224</v>
+      </c>
       <c r="C13" t="s">
         <v>1202</v>
       </c>
@@ -5552,6 +5563,9 @@
     <row r="38" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>196</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1225</v>
       </c>
       <c r="C38" t="s">
         <v>98</v>
